--- a/demo_data/flowrate_no_bypass.xlsx
+++ b/demo_data/flowrate_no_bypass.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/PartTimers/Nick Lombardo/Bioretention/rainfall_flow_analysis/demo_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{E1E1FAC7-CE81-40D3-BA68-902FCADE7445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0A0F38-0A71-4EF4-BB66-CE7B1CB6F408}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E1E1FAC7-CE81-40D3-BA68-902FCADE7445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2405EA9-9B82-4ECF-BDBF-C8367F6F51EB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inflow1" sheetId="1" r:id="rId1"/>
-    <sheet name="inflow2" sheetId="2" r:id="rId2"/>
-    <sheet name="bypass" sheetId="3" r:id="rId3"/>
-    <sheet name="outflow" sheetId="4" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="5" r:id="rId1"/>
+    <sheet name="inflow1" sheetId="1" r:id="rId2"/>
+    <sheet name="inflow2" sheetId="2" r:id="rId3"/>
+    <sheet name="bypass" sheetId="3" r:id="rId4"/>
+    <sheet name="outflow" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -433,6 +434,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B02008-7A18-4F90-9324-B4B19D8A4CFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1972"/>
   <sheetViews>
@@ -16227,7 +16240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1972"/>
   <sheetViews>
@@ -32022,11 +32035,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1971"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -37959,7 +37972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1971"/>
   <sheetViews>
@@ -53747,15 +53760,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21cacd0d90dbd8beb6fc12ad84d4cd0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b418c8325abc32123734ac979891270" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -54015,15 +54019,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6636DA7F-7D61-4910-9C4D-7AB6320A82E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DBDA20A-1402-4484-A75F-CE3A1FB4E261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54041,4 +54046,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6636DA7F-7D61-4910-9C4D-7AB6320A82E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>